--- a/data/uploads/malaria_report.xlsx
+++ b/data/uploads/malaria_report.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/innocentwowa/Documents/Python Scripts/DashPlotly/data/uploads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/innocentwowa/Downloads/MaHIS dataset reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{619B8C9C-A2BA-424D-8D47-DB326CBC7E66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9D64C5E-ACD2-AE48-A950-14FC8A2EDF60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3440" yWindow="3200" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{3D565A06-DCC6-034B-BC7E-69C7A268E9F5}"/>
+    <workbookView xWindow="3440" yWindow="3200" windowWidth="28040" windowHeight="17440" xr2:uid="{3D565A06-DCC6-034B-BC7E-69C7A268E9F5}"/>
   </bookViews>
   <sheets>
     <sheet name="VARIABLE_NAMES" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="141">
   <si>
     <t>name</t>
   </si>
@@ -451,6 +451,18 @@
   </si>
   <si>
     <t>Malaria Species | Malaria film</t>
+  </si>
+  <si>
+    <t>HMIS-Malaria Report</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>section</t>
+  </si>
+  <si>
+    <t>type</t>
   </si>
 </sst>
 </file>
@@ -492,12 +504,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -812,317 +823,335 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AF3DCA1-A1B4-4847-83F8-CD3F49F3B2DB}">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="69.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.83203125" customWidth="1"/>
-    <col min="3" max="3" width="30.5" customWidth="1"/>
+    <col min="2" max="2" width="25.5" customWidth="1"/>
+    <col min="3" max="3" width="25.83203125" customWidth="1"/>
+    <col min="4" max="4" width="30.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C3" t="s">
         <v>41</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>48</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C4" t="s">
         <v>49</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>51</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>53</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>55</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C7" t="s">
         <v>41</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>56</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C8" t="s">
         <v>57</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>59</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C9" t="s">
         <v>41</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D9" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>60</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C10" t="s">
         <v>61</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D10" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>63</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C11" t="s">
         <v>41</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>64</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C12" t="s">
         <v>65</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D12" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>67</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C13" t="s">
         <v>41</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D13" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>68</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C14" t="s">
         <v>69</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D14" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>71</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C15" t="s">
         <v>72</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D15" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>74</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C16" t="s">
         <v>75</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D16" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>77</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C17" t="s">
         <v>78</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D17" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>80</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C18" t="s">
         <v>69</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D18" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>119</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D19" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>120</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D20" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>121</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D21" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>122</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D22" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>123</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D23" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>124</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D24" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>125</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D25" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>126</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D26" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>89</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D27" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>91</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D28" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>93</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D29" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>95</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D30" t="s">
         <v>96</v>
       </c>
     </row>
@@ -1136,7 +1165,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{420C8C5D-A000-9B41-8DCF-AB9A394A13A5}">
   <dimension ref="A1:W37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
@@ -1439,7 +1468,7 @@
       <c r="H7" t="s">
         <v>35</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" t="s">
         <v>131</v>
       </c>
     </row>
@@ -2302,7 +2331,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2323,7 +2352,7 @@
         <v>44</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/data/uploads/malaria_report.xlsx
+++ b/data/uploads/malaria_report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/innocentwowa/Downloads/MaHIS dataset reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9D64C5E-ACD2-AE48-A950-14FC8A2EDF60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF3548CB-0F41-9F49-9E6E-A402022C9493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3440" yWindow="3200" windowWidth="28040" windowHeight="17440" xr2:uid="{3D565A06-DCC6-034B-BC7E-69C7A268E9F5}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="143">
   <si>
     <t>name</t>
   </si>
@@ -463,6 +463,12 @@
   </si>
   <si>
     <t>type</t>
+  </si>
+  <si>
+    <t>Commodities</t>
+  </si>
+  <si>
+    <t>Counts</t>
   </si>
 </sst>
 </file>
@@ -823,10 +829,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AF3DCA1-A1B4-4847-83F8-CD3F49F3B2DB}">
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1048,7 +1054,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>80</v>
       </c>
@@ -1059,99 +1065,110 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>141</v>
+      </c>
+      <c r="B19" t="s">
+        <v>139</v>
+      </c>
+      <c r="D19" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>119</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D20" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+    <row r="21" spans="1:4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>120</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D21" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+    <row r="22" spans="1:4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>121</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D22" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+    <row r="23" spans="1:4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>122</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D23" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+    <row r="24" spans="1:4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>123</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D24" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+    <row r="25" spans="1:4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>124</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D25" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+    <row r="26" spans="1:4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>125</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D26" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+    <row r="27" spans="1:4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>126</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D27" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+    <row r="28" spans="1:4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>89</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D28" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+    <row r="29" spans="1:4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>91</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D29" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+    <row r="30" spans="1:4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>93</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D30" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+    <row r="31" spans="1:4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>95</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D31" t="s">
         <v>96</v>
       </c>
     </row>

--- a/data/uploads/malaria_report.xlsx
+++ b/data/uploads/malaria_report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/innocentwowa/Downloads/MaHIS dataset reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF3548CB-0F41-9F49-9E6E-A402022C9493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CF0B4BA-5B64-7A4A-8AC1-CD01ED295F24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3440" yWindow="3200" windowWidth="28040" windowHeight="17440" xr2:uid="{3D565A06-DCC6-034B-BC7E-69C7A268E9F5}"/>
+    <workbookView xWindow="3440" yWindow="3200" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{3D565A06-DCC6-034B-BC7E-69C7A268E9F5}"/>
   </bookViews>
   <sheets>
     <sheet name="VARIABLE_NAMES" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="144">
   <si>
     <t>name</t>
   </si>
@@ -469,6 +469,9 @@
   </si>
   <si>
     <t>Counts</t>
+  </si>
+  <si>
+    <t>REGISTRATION</t>
   </si>
 </sst>
 </file>
@@ -831,7 +834,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AF3DCA1-A1B4-4847-83F8-CD3F49F3B2DB}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -1054,7 +1057,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>80</v>
       </c>
@@ -1065,7 +1068,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>141</v>
       </c>
@@ -1076,7 +1079,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="20" spans="1:4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>119</v>
       </c>
@@ -1084,7 +1087,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="1:4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>120</v>
       </c>
@@ -1092,7 +1095,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="1:4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>121</v>
       </c>
@@ -1100,7 +1103,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="23" spans="1:4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>122</v>
       </c>
@@ -1108,7 +1111,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="1:4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>123</v>
       </c>
@@ -1116,7 +1119,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="25" spans="1:4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>124</v>
       </c>
@@ -1124,7 +1127,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="26" spans="1:4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>125</v>
       </c>
@@ -1132,7 +1135,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="27" spans="1:4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>126</v>
       </c>
@@ -1140,7 +1143,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="28" spans="1:4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>89</v>
       </c>
@@ -1148,7 +1151,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="1:4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>91</v>
       </c>
@@ -1156,7 +1159,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="30" spans="1:4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>93</v>
       </c>
@@ -1164,7 +1167,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="31" spans="1:4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>95</v>
       </c>
@@ -1182,8 +1185,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{420C8C5D-A000-9B41-8DCF-AB9A394A13A5}">
   <dimension ref="A1:W37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1483,7 +1486,7 @@
         <v>132</v>
       </c>
       <c r="H7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I7" t="s">
         <v>131</v>
@@ -1506,9 +1509,15 @@
         <v>127</v>
       </c>
       <c r="F8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" t="s">
+        <v>143</v>
+      </c>
+      <c r="H8" t="s">
         <v>40</v>
       </c>
-      <c r="G8" t="s">
+      <c r="I8" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1529,9 +1538,15 @@
         <v>127</v>
       </c>
       <c r="F9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" t="s">
+        <v>143</v>
+      </c>
+      <c r="H9" t="s">
         <v>40</v>
       </c>
-      <c r="G9" t="s">
+      <c r="I9" t="s">
         <v>97</v>
       </c>
     </row>
